--- a/Excel2JsonTool/Excel/Item.xlsx
+++ b/Excel2JsonTool/Excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555"/>
+    <workbookView windowWidth="24195" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -22,7 +22,8 @@
     <t>Name</t>
   </si>
   <si>
-    <t>序号</t>
+    <t>序号
+装备10W开始</t>
   </si>
   <si>
     <t>名字</t>
@@ -34,43 +35,49 @@
     <t>string</t>
   </si>
   <si>
-    <t>物品1</t>
-  </si>
-  <si>
-    <t>物品2</t>
-  </si>
-  <si>
-    <t>物品3</t>
-  </si>
-  <si>
-    <t>物品4</t>
-  </si>
-  <si>
-    <t>物品5</t>
-  </si>
-  <si>
-    <t>物品6</t>
-  </si>
-  <si>
-    <t>物品7</t>
-  </si>
-  <si>
-    <t>物品8</t>
-  </si>
-  <si>
-    <t>物品9</t>
-  </si>
-  <si>
-    <t>物品10</t>
-  </si>
-  <si>
-    <t>物品11</t>
-  </si>
-  <si>
-    <t>物品12</t>
-  </si>
-  <si>
-    <t>物品13</t>
+    <t>物品100001</t>
+  </si>
+  <si>
+    <t>物品100002</t>
+  </si>
+  <si>
+    <t>物品100003</t>
+  </si>
+  <si>
+    <t>物品100004</t>
+  </si>
+  <si>
+    <t>物品100005</t>
+  </si>
+  <si>
+    <t>物品100006</t>
+  </si>
+  <si>
+    <t>物品100007</t>
+  </si>
+  <si>
+    <t>物品100008</t>
+  </si>
+  <si>
+    <t>物品100009</t>
+  </si>
+  <si>
+    <t>物品100010</t>
+  </si>
+  <si>
+    <t>物品100011</t>
+  </si>
+  <si>
+    <t>物品100012</t>
+  </si>
+  <si>
+    <t>物品100013</t>
+  </si>
+  <si>
+    <t>物品100014</t>
+  </si>
+  <si>
+    <t>物品100015</t>
   </si>
 </sst>
 </file>
@@ -78,12 +85,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,75 +100,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="4" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,21 +192,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +206,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -220,19 +235,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,6 +450,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -450,6 +503,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,66 +550,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,138 +568,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1005,27 +1027,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:B17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" ht="42.75" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1037,110 +1059,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" s="2" customFormat="1" spans="1:2">
+      <c r="A4" s="2">
+        <v>100001</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" s="2" customFormat="1" spans="1:2">
+      <c r="A5" s="2">
+        <v>100002</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" s="2" customFormat="1" spans="1:2">
+      <c r="A6" s="2">
+        <v>100003</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" s="2" customFormat="1" spans="1:2">
+      <c r="A7" s="2">
+        <v>100004</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" s="2" customFormat="1" spans="1:2">
+      <c r="A8" s="2">
+        <v>100005</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" s="2" customFormat="1" spans="1:2">
+      <c r="A9" s="2">
+        <v>100006</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" s="2" customFormat="1" spans="1:2">
+      <c r="A10" s="2">
+        <v>100007</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" s="2" customFormat="1" spans="1:2">
+      <c r="A11" s="2">
+        <v>100008</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" s="2" customFormat="1" spans="1:2">
+      <c r="A12" s="2">
+        <v>100009</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" s="2" customFormat="1" spans="1:2">
+      <c r="A13" s="2">
+        <v>100010</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" s="2" customFormat="1" spans="1:2">
+      <c r="A14" s="2">
+        <v>100011</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" s="2" customFormat="1" spans="1:2">
+      <c r="A15" s="2">
+        <v>100012</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" s="2" customFormat="1" spans="1:2">
+      <c r="A16" s="2">
+        <v>100013</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="17" s="2" customFormat="1" spans="1:2">
+      <c r="A17" s="2">
+        <v>100014</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:2">
+      <c r="A18" s="2">
+        <v>100015</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
